--- a/data/trans_orig/P15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50C13949-EF54-4F52-BA22-A13F8791DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0FD38B-9A68-4A11-9D82-F8DC1ED3261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F2AB7E95-EF8D-456D-A19D-CC0221AF1100}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDDC1F47-E286-4CE2-8ED2-EA36D2A740BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1693 +77,1717 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>93,28%</t>
+    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC2A683-F71A-459C-845A-FA573862C07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693C6F16-568C-4130-B320-0C36FCAF8E86}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2800,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2839,13 @@
         <v>318923</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>363</v>
@@ -2830,13 +2854,13 @@
         <v>350944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -2845,13 +2869,13 @@
         <v>669867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +2931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2919,13 +2943,13 @@
         <v>19494</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2934,13 +2958,13 @@
         <v>12776</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2949,13 +2973,13 @@
         <v>32269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2994,13 @@
         <v>183814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -2985,13 +3009,13 @@
         <v>194892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
@@ -3000,13 +3024,13 @@
         <v>378707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3098,13 @@
         <v>19689</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3089,13 +3113,13 @@
         <v>21315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -3104,13 +3128,13 @@
         <v>41003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3149,13 @@
         <v>251122</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -3140,13 +3164,13 @@
         <v>256829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -3155,13 +3179,13 @@
         <v>507952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3241,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3229,13 +3253,13 @@
         <v>45149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3244,13 +3268,13 @@
         <v>24093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -3259,13 +3283,13 @@
         <v>69242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3304,13 @@
         <v>569878</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3295,13 +3319,13 @@
         <v>614126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1152</v>
@@ -3310,13 +3334,13 @@
         <v>1184004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3408,13 @@
         <v>48731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3399,13 +3423,13 @@
         <v>47788</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3417,10 +3441,10 @@
         <v>17</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3459,13 @@
         <v>695064</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>699</v>
@@ -3450,13 +3474,13 @@
         <v>735723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>1386</v>
@@ -3468,10 +3492,10 @@
         <v>27</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,13 +3563,13 @@
         <v>243056</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>169</v>
@@ -3554,13 +3578,13 @@
         <v>175391</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -3569,13 +3593,13 @@
         <v>418447</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3614,13 @@
         <v>3033488</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>3128</v>
@@ -3605,28 +3629,28 @@
         <v>3203807</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>6105</v>
       </c>
       <c r="N29" s="7">
-        <v>6237293</v>
+        <v>6237294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,7 +3692,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3682,7 +3706,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681A3F41-49AE-41C8-92A2-53424C0A186A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFEF8C7-8577-47CB-A9E6-D73114ECE31A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3723,7 +3747,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3828,39 +3852,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,39 +3897,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,39 +3942,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3991,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3982,13 +4006,13 @@
         <v>30256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -3997,13 +4021,13 @@
         <v>62284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4042,13 @@
         <v>473499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
@@ -4033,13 +4057,13 @@
         <v>493509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -4048,13 +4072,13 @@
         <v>967008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4146,13 @@
         <v>52853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4137,13 +4161,13 @@
         <v>40911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4152,13 +4176,13 @@
         <v>93764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4197,13 @@
         <v>271193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>278</v>
@@ -4188,13 +4212,13 @@
         <v>300109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>542</v>
@@ -4203,13 +4227,13 @@
         <v>571302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4301,13 @@
         <v>69745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4292,13 +4316,13 @@
         <v>45060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -4307,13 +4331,13 @@
         <v>114805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4352,13 @@
         <v>598975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -4343,13 +4367,13 @@
         <v>631136</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1147</v>
@@ -4358,13 +4382,13 @@
         <v>1230111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,7 +4444,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4432,13 +4456,13 @@
         <v>13172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4447,13 +4471,13 @@
         <v>19798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4462,13 +4486,13 @@
         <v>32971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4507,13 @@
         <v>199446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4498,13 +4522,13 @@
         <v>199793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -4513,13 +4537,13 @@
         <v>399238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,7 +4599,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4590,10 +4614,10 @@
         <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4602,13 +4626,13 @@
         <v>35415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4617,13 +4641,13 @@
         <v>65766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4662,13 @@
         <v>243630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -4653,13 +4677,13 @@
         <v>244616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>468</v>
@@ -4668,13 +4692,13 @@
         <v>488246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4754,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4742,13 +4766,13 @@
         <v>65751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -4757,13 +4781,13 @@
         <v>59675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -4772,13 +4796,13 @@
         <v>125426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4817,13 @@
         <v>597037</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -4808,13 +4832,13 @@
         <v>634178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1135</v>
@@ -4823,13 +4847,13 @@
         <v>1231215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4909,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4897,13 +4921,13 @@
         <v>24013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -4912,13 +4936,13 @@
         <v>26357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4927,13 +4951,13 @@
         <v>50370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4972,13 @@
         <v>755085</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -4963,13 +4987,13 @@
         <v>797496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>1429</v>
@@ -4978,13 +5002,13 @@
         <v>1552581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5076,13 @@
         <v>287913</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -5067,13 +5091,13 @@
         <v>257472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>517</v>
@@ -5082,13 +5106,13 @@
         <v>545385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5127,13 @@
         <v>3138866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>3057</v>
@@ -5118,13 +5142,13 @@
         <v>3300837</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>5990</v>
@@ -5133,13 +5157,13 @@
         <v>6439703</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,7 +5219,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6957EF-3D80-4D1B-B468-2F713D773C66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C09232-6E89-4F41-9DE4-CD96A3ADE19F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5367,13 @@
         <v>19206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5358,13 +5382,13 @@
         <v>30188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5373,13 +5397,13 @@
         <v>49394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5418,13 @@
         <v>274555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>250</v>
@@ -5409,13 +5433,13 @@
         <v>258515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5424,13 +5448,13 @@
         <v>533070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,10 +5525,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5513,13 +5537,13 @@
         <v>15878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5528,13 +5552,13 @@
         <v>35293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,10 +5576,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5564,13 +5588,13 @@
         <v>507206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -5579,13 +5603,13 @@
         <v>990366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5677,13 @@
         <v>23231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5668,13 +5692,13 @@
         <v>13881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5683,13 +5707,13 @@
         <v>37112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5728,13 @@
         <v>295334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -5719,13 +5743,13 @@
         <v>322428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -5734,13 +5758,13 @@
         <v>617762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5832,13 @@
         <v>38392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5823,13 +5847,13 @@
         <v>36371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5841,10 +5865,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5883,13 @@
         <v>331572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5874,13 +5898,13 @@
         <v>350912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -5892,10 +5916,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5975,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5963,13 +5987,13 @@
         <v>10124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5978,13 +6002,13 @@
         <v>4533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5993,13 +6017,13 @@
         <v>14657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6038,13 @@
         <v>201097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -6029,13 +6053,13 @@
         <v>214054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -6044,13 +6068,13 @@
         <v>415151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6130,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6118,13 +6142,13 @@
         <v>28224</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>162</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6133,10 +6157,10 @@
         <v>36459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>393</v>
@@ -6175,7 +6199,7 @@
         <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6184,13 +6208,13 @@
         <v>236656</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>401</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6199,13 +6223,13 @@
         <v>471555</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,7 +6285,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6273,13 +6297,13 @@
         <v>26436</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6288,13 +6312,13 @@
         <v>27407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -6303,13 +6327,13 @@
         <v>53843</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6348,13 @@
         <v>630122</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>621</v>
@@ -6339,13 +6363,13 @@
         <v>663887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>385</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -6354,13 +6378,13 @@
         <v>1294009</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,7 +6440,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6428,13 +6452,13 @@
         <v>34606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>233</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6443,13 +6467,13 @@
         <v>26736</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>423</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -6458,13 +6482,13 @@
         <v>61342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6503,13 @@
         <v>743977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>242</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6494,13 +6518,13 @@
         <v>799431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>430</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -6509,13 +6533,13 @@
         <v>1543408</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6607,13 @@
         <v>199634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>40</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -6598,13 +6622,13 @@
         <v>191453</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6613,13 +6637,13 @@
         <v>391087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6658,13 @@
         <v>3194716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>48</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6649,13 +6673,13 @@
         <v>3353089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>388</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6664,13 +6688,13 @@
         <v>6547805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,7 +6750,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6750,7 +6774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884D5D2A-FDC1-4A3C-AEA8-7EDE30ADBBC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE640192-9969-4B37-AE61-4B6EC9CAFD68}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6791,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6874,13 +6898,13 @@
         <v>23447</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>59</v>
@@ -6889,13 +6913,13 @@
         <v>28061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -6904,13 +6928,13 @@
         <v>51508</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,13 +6949,13 @@
         <v>236851</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H5" s="7">
         <v>479</v>
@@ -6940,13 +6964,13 @@
         <v>243342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -6955,13 +6979,13 @@
         <v>480192</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,13 +7053,13 @@
         <v>24633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -7044,7 +7068,7 @@
         <v>36446</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>465</v>
@@ -7062,10 +7086,10 @@
         <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7080,13 +7104,13 @@
         <v>494664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>669</v>
@@ -7095,7 +7119,7 @@
         <v>518120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>472</v>
@@ -7113,10 +7137,10 @@
         <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7184,13 +7208,13 @@
         <v>21832</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -7199,13 +7223,13 @@
         <v>29002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>478</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -7214,13 +7238,13 @@
         <v>50834</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7235,13 +7259,13 @@
         <v>300408</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
@@ -7250,13 +7274,13 @@
         <v>344282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -7265,10 +7289,10 @@
         <v>644690</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>490</v>
@@ -7372,10 +7396,10 @@
         <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>498</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>498</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,10 +7447,10 @@
         <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,7 +7506,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7524,13 +7548,13 @@
         <v>8700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7569,13 @@
         <v>188702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H17" s="7">
         <v>491</v>
@@ -7560,13 +7584,13 @@
         <v>231249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -7575,13 +7599,13 @@
         <v>419951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7661,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7649,13 +7673,13 @@
         <v>26927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -7664,13 +7688,13 @@
         <v>29028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -7679,13 +7703,13 @@
         <v>55954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7724,13 @@
         <v>250296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -7715,13 +7739,13 @@
         <v>246594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
@@ -7730,13 +7754,13 @@
         <v>496891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,7 +7816,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7804,13 +7828,13 @@
         <v>44392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7819,13 +7843,13 @@
         <v>54587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -7834,13 +7858,13 @@
         <v>98978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>548</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,13 +7879,13 @@
         <v>583362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>547</v>
+        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>884</v>
@@ -7870,13 +7894,13 @@
         <v>749616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
@@ -7885,13 +7909,13 @@
         <v>1332979</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>62</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,7 +7971,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7959,13 +7983,13 @@
         <v>30892</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -7974,13 +7998,13 @@
         <v>34457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>563</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -7989,13 +8013,13 @@
         <v>65349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8010,13 +8034,13 @@
         <v>828536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="H26" s="7">
         <v>1018</v>
@@ -8025,13 +8049,13 @@
         <v>833977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M26" s="7">
         <v>1755</v>
@@ -8040,13 +8064,13 @@
         <v>1662513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8138,13 @@
         <v>204962</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>565</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="H28" s="7">
         <v>359</v>
@@ -8129,13 +8153,13 @@
         <v>232277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -8144,13 +8168,13 @@
         <v>437239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8165,13 +8189,13 @@
         <v>3180266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>570</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>5005</v>
@@ -8180,28 +8204,28 @@
         <v>3575695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
       </c>
       <c r="N29" s="7">
-        <v>6755961</v>
+        <v>6755960</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,7 +8267,7 @@
         <v>8740</v>
       </c>
       <c r="N30" s="7">
-        <v>7193200</v>
+        <v>7193199</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8257,7 +8281,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0FD38B-9A68-4A11-9D82-F8DC1ED3261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{007F5843-011A-4E7E-90D8-554EE690DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDDC1F47-E286-4CE2-8ED2-EA36D2A740BE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00693EFE-F33E-446B-93E3-09C17EF8533B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="571">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,1%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1654 +140,1618 @@
     <t>4,04%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -2199,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693C6F16-568C-4130-B320-0C36FCAF8E86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82253D3-2DCB-44F4-957E-F34984DD3899}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2958,13 +2922,13 @@
         <v>12776</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2973,13 +2937,13 @@
         <v>32269</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2958,13 @@
         <v>183814</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>186</v>
@@ -3009,13 +2973,13 @@
         <v>194892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
@@ -3024,13 +2988,13 @@
         <v>378707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,7 +3050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3098,13 +3062,13 @@
         <v>19689</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3113,13 +3077,13 @@
         <v>21315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -3128,13 +3092,13 @@
         <v>41003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3113,13 @@
         <v>251122</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -3164,13 +3128,13 @@
         <v>256829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -3179,13 +3143,13 @@
         <v>507952</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3205,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3253,13 +3217,13 @@
         <v>45149</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3268,13 +3232,13 @@
         <v>24093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -3283,13 +3247,13 @@
         <v>69242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3268,13 @@
         <v>569878</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3319,13 +3283,13 @@
         <v>614126</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>1152</v>
@@ -3334,13 +3298,13 @@
         <v>1184004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3360,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3408,13 +3372,13 @@
         <v>48731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3423,13 +3387,13 @@
         <v>47788</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3441,10 +3405,10 @@
         <v>17</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3423,13 @@
         <v>695064</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>699</v>
@@ -3474,13 +3438,13 @@
         <v>735723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1386</v>
@@ -3492,10 +3456,10 @@
         <v>27</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3527,13 @@
         <v>243056</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="H28" s="7">
         <v>169</v>
@@ -3578,13 +3542,13 @@
         <v>175391</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -3593,13 +3557,13 @@
         <v>418447</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,16 +3575,16 @@
         <v>2977</v>
       </c>
       <c r="D29" s="7">
-        <v>3033488</v>
+        <v>3033487</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3128</v>
@@ -3629,13 +3593,13 @@
         <v>3203807</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>6105</v>
@@ -3644,13 +3608,13 @@
         <v>6237294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3626,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3706,7 +3670,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFEF8C7-8577-47CB-A9E6-D73114ECE31A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C2CB77-0FBC-4736-AB07-B688CE780701}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3747,7 +3711,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3852,39 +3816,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,39 +3861,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,39 +3906,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3955,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -4006,13 +3970,13 @@
         <v>30256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -4021,13 +3985,13 @@
         <v>62284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4006,13 @@
         <v>473499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
@@ -4057,13 +4021,13 @@
         <v>493509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -4072,13 +4036,13 @@
         <v>967008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4110,13 @@
         <v>52853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4161,13 +4125,13 @@
         <v>40911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4176,13 +4140,13 @@
         <v>93764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4161,13 @@
         <v>271193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>278</v>
@@ -4212,13 +4176,13 @@
         <v>300109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>542</v>
@@ -4227,13 +4191,13 @@
         <v>571302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4265,13 @@
         <v>69745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4316,13 +4280,13 @@
         <v>45060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -4331,13 +4295,13 @@
         <v>114805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4316,13 @@
         <v>598975</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>585</v>
@@ -4367,13 +4331,13 @@
         <v>631136</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M14" s="7">
         <v>1147</v>
@@ -4382,13 +4346,13 @@
         <v>1230111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4420,13 @@
         <v>13172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4471,13 +4435,13 @@
         <v>19798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4486,13 +4450,13 @@
         <v>32971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4471,13 @@
         <v>199446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4522,13 +4486,13 @@
         <v>199793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -4537,13 +4501,13 @@
         <v>399238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,7 +4563,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4614,10 +4578,10 @@
         <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4626,13 +4590,13 @@
         <v>35415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4641,13 +4605,13 @@
         <v>65766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,10 +4629,10 @@
         <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -4677,13 +4641,13 @@
         <v>244616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>468</v>
@@ -4692,13 +4656,13 @@
         <v>488246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4718,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4766,13 +4730,13 @@
         <v>65751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -4781,13 +4745,13 @@
         <v>59675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -4796,13 +4760,13 @@
         <v>125426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4781,13 @@
         <v>597037</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -4832,13 +4796,13 @@
         <v>634178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
         <v>1135</v>
@@ -4847,13 +4811,13 @@
         <v>1231215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4873,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4921,13 +4885,13 @@
         <v>24013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -4936,13 +4900,13 @@
         <v>26357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4951,13 +4915,13 @@
         <v>50370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4936,13 @@
         <v>755085</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -4987,13 +4951,13 @@
         <v>797496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>1429</v>
@@ -5002,13 +4966,13 @@
         <v>1552581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5040,13 @@
         <v>287913</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>59</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -5091,13 +5055,13 @@
         <v>257472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>517</v>
@@ -5106,13 +5070,13 @@
         <v>545385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5091,13 @@
         <v>3138866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>3057</v>
@@ -5142,13 +5106,13 @@
         <v>3300837</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>5990</v>
@@ -5157,13 +5121,13 @@
         <v>6439703</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5183,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5243,7 +5207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C09232-6E89-4F41-9DE4-CD96A3ADE19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1B25A3-6446-49FC-AB64-27B6EBB7EB63}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5260,7 +5224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5367,13 +5331,13 @@
         <v>19206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5382,13 +5346,13 @@
         <v>30188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5397,13 +5361,13 @@
         <v>49394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5382,13 @@
         <v>274555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>250</v>
@@ -5433,13 +5397,13 @@
         <v>258515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5448,13 +5412,13 @@
         <v>533070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5525,10 +5489,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5537,13 +5501,13 @@
         <v>15878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5552,13 +5516,13 @@
         <v>35293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,10 +5540,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5588,13 +5552,13 @@
         <v>507206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -5603,13 +5567,13 @@
         <v>990366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5641,13 @@
         <v>23231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5692,13 +5656,13 @@
         <v>13881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5707,13 +5671,13 @@
         <v>37112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5692,13 @@
         <v>295334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -5743,13 +5707,13 @@
         <v>322428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -5758,13 +5722,13 @@
         <v>617762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5796,13 @@
         <v>38392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5847,13 +5811,13 @@
         <v>36371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5865,10 +5829,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5847,13 @@
         <v>331572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5898,13 +5862,13 @@
         <v>350912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -5916,10 +5880,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5951,13 @@
         <v>10124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6002,13 +5966,13 @@
         <v>4533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -6017,13 +5981,13 @@
         <v>14657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6002,13 @@
         <v>201097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -6053,13 +6017,13 @@
         <v>214054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -6068,13 +6032,13 @@
         <v>415151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,7 +6094,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6142,13 +6106,13 @@
         <v>28224</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>381</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6157,13 +6121,13 @@
         <v>36459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6172,13 +6136,13 @@
         <v>64683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6157,13 @@
         <v>234899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6208,13 +6172,13 @@
         <v>236656</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6223,13 +6187,13 @@
         <v>471555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6249,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6297,13 +6261,13 @@
         <v>26436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6312,13 +6276,13 @@
         <v>27407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -6327,13 +6291,13 @@
         <v>53843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6312,13 @@
         <v>630122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>621</v>
@@ -6363,13 +6327,13 @@
         <v>663887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -6378,13 +6342,13 @@
         <v>1294009</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6404,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6452,13 +6416,13 @@
         <v>34606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6467,13 +6431,13 @@
         <v>26736</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>36</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -6482,13 +6446,13 @@
         <v>61342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6467,13 @@
         <v>743977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6518,13 +6482,13 @@
         <v>799431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -6533,13 +6497,13 @@
         <v>1543408</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6571,13 @@
         <v>199634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -6622,13 +6586,13 @@
         <v>191453</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>54</v>
+        <v>429</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6637,13 +6601,13 @@
         <v>391087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6622,13 @@
         <v>3194716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>48</v>
+        <v>434</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6673,13 +6637,13 @@
         <v>3353089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>388</v>
+        <v>48</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>436</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6688,13 +6652,13 @@
         <v>6547805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6714,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE640192-9969-4B37-AE61-4B6EC9CAFD68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D937E220-6676-4FEC-B053-AEE0A7E9EE3F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,7 +6755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6898,13 +6862,13 @@
         <v>23447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>59</v>
@@ -6913,13 +6877,13 @@
         <v>28061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -6928,13 +6892,13 @@
         <v>51508</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>444</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,13 +6913,13 @@
         <v>236851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>479</v>
@@ -6964,13 +6928,13 @@
         <v>243342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -6979,13 +6943,13 @@
         <v>480192</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7017,13 @@
         <v>24633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -7068,13 +7032,13 @@
         <v>36446</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -7083,13 +7047,13 @@
         <v>61079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>165</v>
+        <v>458</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7068,13 @@
         <v>494664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>115</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>669</v>
@@ -7119,13 +7083,13 @@
         <v>518120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
@@ -7134,13 +7098,13 @@
         <v>1012785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7172,13 @@
         <v>21832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -7223,13 +7187,13 @@
         <v>29002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -7238,13 +7202,13 @@
         <v>50834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7223,13 @@
         <v>300408</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
@@ -7274,13 +7238,13 @@
         <v>344282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>479</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -7289,13 +7253,13 @@
         <v>644690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7327,13 @@
         <v>24794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7378,13 +7342,13 @@
         <v>20042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -7393,13 +7357,13 @@
         <v>44836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7378,13 @@
         <v>297446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -7429,13 +7393,13 @@
         <v>408514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
@@ -7444,13 +7408,13 @@
         <v>705960</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7482,13 @@
         <v>8046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>507</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7533,13 +7497,13 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7548,13 +7512,13 @@
         <v>8700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7533,13 @@
         <v>188702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>516</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>517</v>
+        <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H17" s="7">
         <v>491</v>
@@ -7584,13 +7548,13 @@
         <v>231249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -7599,13 +7563,13 @@
         <v>419951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>522</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,7 +7625,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7673,13 +7637,13 @@
         <v>26927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -7688,13 +7652,13 @@
         <v>29028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -7703,13 +7667,13 @@
         <v>55954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7688,13 @@
         <v>250296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -7739,13 +7703,13 @@
         <v>246594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
@@ -7754,13 +7718,13 @@
         <v>496891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,7 +7780,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7828,13 +7792,13 @@
         <v>44392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7843,13 +7807,13 @@
         <v>54587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -7858,13 +7822,13 @@
         <v>98978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7843,13 @@
         <v>583362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>884</v>
@@ -7894,13 +7858,13 @@
         <v>749616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
@@ -7909,13 +7873,13 @@
         <v>1332979</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +7935,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7983,13 +7947,13 @@
         <v>30892</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -7998,13 +7962,13 @@
         <v>34457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>562</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -8013,13 +7977,13 @@
         <v>65349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +7998,13 @@
         <v>828536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H26" s="7">
         <v>1018</v>
@@ -8049,13 +8013,13 @@
         <v>833977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>570</v>
+        <v>425</v>
       </c>
       <c r="M26" s="7">
         <v>1755</v>
@@ -8064,13 +8028,13 @@
         <v>1662513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8102,13 @@
         <v>204962</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>559</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="H28" s="7">
         <v>359</v>
@@ -8153,13 +8117,13 @@
         <v>232277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -8168,13 +8132,13 @@
         <v>437239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>576</v>
+        <v>413</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>128</v>
+        <v>563</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8153,13 @@
         <v>3180266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>566</v>
       </c>
       <c r="H29" s="7">
         <v>5005</v>
@@ -8204,13 +8168,13 @@
         <v>3575695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
@@ -8219,13 +8183,13 @@
         <v>6755960</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>581</v>
+        <v>419</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,7 +8245,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007F5843-011A-4E7E-90D8-554EE690DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8F4423-664F-40DD-85C5-97F63F2F9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00693EFE-F33E-446B-93E3-09C17EF8533B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF71213D-2C36-414D-9295-F881CFCF78EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,1687 +71,1699 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>6,32%</t>
   </si>
   <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>90,54%</t>
   </si>
   <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -2163,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82253D3-2DCB-44F4-957E-F34984DD3899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E4DFB-2FF7-4D7A-A81C-0D8BBB7F4D49}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2788,7 +2800,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2815,13 @@
         <v>318923</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>363</v>
@@ -2818,13 +2830,13 @@
         <v>350944</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>684</v>
@@ -2833,13 +2845,13 @@
         <v>669867</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2907,13 +2919,13 @@
         <v>19494</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -2922,13 +2934,13 @@
         <v>12776</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2937,13 +2949,13 @@
         <v>32269</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2985,13 @@
         <v>194892</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
@@ -2988,13 +3000,13 @@
         <v>378707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3074,13 @@
         <v>19689</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -3077,13 +3089,13 @@
         <v>21315</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -3092,13 +3104,13 @@
         <v>41003</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,7 +3131,7 @@
         <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -3128,13 +3140,13 @@
         <v>256829</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>497</v>
@@ -3143,13 +3155,13 @@
         <v>507952</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,7 +3217,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3217,13 +3229,13 @@
         <v>45149</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -3232,13 +3244,13 @@
         <v>24093</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -3247,13 +3259,13 @@
         <v>69242</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3280,13 @@
         <v>569878</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -3283,13 +3295,13 @@
         <v>614126</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>1152</v>
@@ -3298,13 +3310,13 @@
         <v>1184004</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,7 +3372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3372,13 +3384,13 @@
         <v>48731</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -3387,13 +3399,13 @@
         <v>47788</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3405,10 +3417,10 @@
         <v>17</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3435,13 @@
         <v>695064</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>699</v>
@@ -3438,13 +3450,13 @@
         <v>735723</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>1386</v>
@@ -3456,10 +3468,10 @@
         <v>27</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3539,13 @@
         <v>243056</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H28" s="7">
         <v>169</v>
@@ -3542,13 +3554,13 @@
         <v>175391</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>406</v>
@@ -3557,13 +3569,13 @@
         <v>418447</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,16 +3587,16 @@
         <v>2977</v>
       </c>
       <c r="D29" s="7">
-        <v>3033487</v>
+        <v>3033488</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3128</v>
@@ -3593,28 +3605,28 @@
         <v>3203807</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>6105</v>
       </c>
       <c r="N29" s="7">
-        <v>6237294</v>
+        <v>6237293</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3638,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3656,7 +3668,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3670,7 +3682,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3694,7 +3706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C2CB77-0FBC-4736-AB07-B688CE780701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD455D51-1D1B-4506-8F91-D0DF5499727C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3711,7 +3723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3816,39 +3828,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,39 +3873,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,39 +3918,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3967,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3970,13 +3982,13 @@
         <v>30256</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -3985,13 +3997,13 @@
         <v>62284</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4018,7 @@
         <v>473499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>98</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>183</v>
@@ -4408,7 +4420,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4450,10 +4462,10 @@
         <v>32971</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>234</v>
@@ -4501,13 +4513,13 @@
         <v>399238</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4575,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4626,7 +4638,7 @@
         <v>243630</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>251</v>
@@ -4718,7 +4730,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4873,7 +4885,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5046,7 +5058,7 @@
         <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -5055,10 +5067,10 @@
         <v>257472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>299</v>
@@ -5076,7 +5088,7 @@
         <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,10 +5103,10 @@
         <v>3138866</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>304</v>
@@ -5112,7 +5124,7 @@
         <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>5990</v>
@@ -5121,13 +5133,13 @@
         <v>6439703</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5195,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5207,7 +5219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1B25A3-6446-49FC-AB64-27B6EBB7EB63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783726C1-F5FC-44EA-A436-C95F09EC637E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5224,7 +5236,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5331,13 +5343,13 @@
         <v>19206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5346,13 +5358,13 @@
         <v>30188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5361,13 +5373,13 @@
         <v>49394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5394,13 @@
         <v>274555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>250</v>
@@ -5397,13 +5409,13 @@
         <v>258515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5412,13 +5424,13 @@
         <v>533070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,10 +5501,10 @@
         <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5501,13 +5513,13 @@
         <v>15878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5516,13 +5528,13 @@
         <v>35293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,10 +5552,10 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -5552,13 +5564,13 @@
         <v>507206</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -5567,13 +5579,13 @@
         <v>990366</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5653,13 @@
         <v>23231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5656,13 +5668,13 @@
         <v>13881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5671,13 +5683,13 @@
         <v>37112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5704,13 @@
         <v>295334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -5707,13 +5719,13 @@
         <v>322428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>21</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -5722,13 +5734,13 @@
         <v>617762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,13 +5808,13 @@
         <v>38392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5811,13 +5823,13 @@
         <v>36371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5829,10 +5841,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5859,13 @@
         <v>331572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>327</v>
@@ -5862,13 +5874,13 @@
         <v>350912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -5880,10 +5892,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,7 +5951,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5951,13 +5963,13 @@
         <v>10124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5966,13 +5978,13 @@
         <v>4533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5981,13 +5993,13 @@
         <v>14657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6014,13 @@
         <v>201097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -6017,13 +6029,13 @@
         <v>214054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -6032,13 +6044,13 @@
         <v>415151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,7 +6106,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6106,13 +6118,13 @@
         <v>28224</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6121,13 +6133,13 @@
         <v>36459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6136,13 +6148,13 @@
         <v>64683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6169,13 @@
         <v>234899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6172,13 +6184,13 @@
         <v>236656</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6187,13 +6199,13 @@
         <v>471555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,7 +6261,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6261,13 +6273,13 @@
         <v>26436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6276,13 +6288,13 @@
         <v>27407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>14</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -6291,13 +6303,13 @@
         <v>53843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6324,13 @@
         <v>630122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>621</v>
@@ -6327,13 +6339,13 @@
         <v>663887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -6342,13 +6354,13 @@
         <v>1294009</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6416,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6416,13 +6428,13 @@
         <v>34606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6431,13 +6443,13 @@
         <v>26736</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -6446,13 +6458,13 @@
         <v>61342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>416</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,13 +6479,13 @@
         <v>743977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>429</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6482,13 +6494,13 @@
         <v>799431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>422</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -6497,13 +6509,13 @@
         <v>1543408</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>422</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6583,13 @@
         <v>199634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -6586,13 +6598,13 @@
         <v>191453</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>40</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6601,13 +6613,13 @@
         <v>391087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>332</v>
+        <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6634,13 @@
         <v>3194716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6637,13 +6649,13 @@
         <v>3353089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>48</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>436</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6652,13 +6664,13 @@
         <v>6547805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,7 +6726,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6738,7 +6750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D937E220-6676-4FEC-B053-AEE0A7E9EE3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAED7E2-58BE-484B-9A56-A2EFC16C2DA9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6755,7 +6767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6862,13 +6874,13 @@
         <v>23447</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>59</v>
@@ -6877,13 +6889,13 @@
         <v>28061</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
@@ -6892,13 +6904,13 @@
         <v>51508</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>444</v>
+        <v>59</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6925,13 @@
         <v>236851</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H5" s="7">
         <v>479</v>
@@ -6928,13 +6940,13 @@
         <v>243342</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>308</v>
+        <v>461</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -6943,13 +6955,13 @@
         <v>480192</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,13 +7029,13 @@
         <v>24633</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
@@ -7032,13 +7044,13 @@
         <v>36446</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>155</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -7047,13 +7059,13 @@
         <v>61079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,13 +7080,13 @@
         <v>494664</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>669</v>
@@ -7083,13 +7095,13 @@
         <v>518120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>461</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
@@ -7098,13 +7110,13 @@
         <v>1012785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7184,13 @@
         <v>21832</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -7187,13 +7199,13 @@
         <v>29002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -7202,13 +7214,13 @@
         <v>50834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7223,13 +7235,13 @@
         <v>300408</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
@@ -7238,13 +7250,13 @@
         <v>344282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>477</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -7253,13 +7265,13 @@
         <v>644690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7339,13 @@
         <v>24794</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>492</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7342,13 +7354,13 @@
         <v>20042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -7357,13 +7369,13 @@
         <v>44836</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>489</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7390,13 @@
         <v>297446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -7393,13 +7405,13 @@
         <v>408514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
@@ -7408,13 +7420,13 @@
         <v>705960</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,7 +7482,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7482,13 +7494,13 @@
         <v>8046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>507</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7497,13 +7509,13 @@
         <v>654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7512,13 +7524,13 @@
         <v>8700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,13 +7545,13 @@
         <v>188702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>516</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>491</v>
@@ -7548,13 +7560,13 @@
         <v>231249</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
@@ -7563,13 +7575,13 @@
         <v>419951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,7 +7637,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7637,13 +7649,13 @@
         <v>26927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
@@ -7652,13 +7664,13 @@
         <v>29028</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -7667,13 +7679,13 @@
         <v>55954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>516</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7688,13 +7700,13 @@
         <v>250296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>519</v>
+        <v>457</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
@@ -7703,13 +7715,13 @@
         <v>246594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
@@ -7718,13 +7730,13 @@
         <v>496891</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>526</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,7 +7792,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7792,13 +7804,13 @@
         <v>44392</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
@@ -7807,13 +7819,13 @@
         <v>54587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
@@ -7822,13 +7834,13 @@
         <v>98978</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,13 +7855,13 @@
         <v>583362</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="H23" s="7">
         <v>884</v>
@@ -7858,13 +7870,13 @@
         <v>749616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
@@ -7873,13 +7885,13 @@
         <v>1332979</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>542</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7935,7 +7947,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7947,13 +7959,13 @@
         <v>30892</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -7962,13 +7974,13 @@
         <v>34457</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>557</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -7977,13 +7989,13 @@
         <v>65349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7998,13 +8010,13 @@
         <v>828536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H26" s="7">
         <v>1018</v>
@@ -8013,13 +8025,13 @@
         <v>833977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>81</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>425</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
         <v>1755</v>
@@ -8028,13 +8040,13 @@
         <v>1662513</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8102,13 +8114,13 @@
         <v>204962</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="H28" s="7">
         <v>359</v>
@@ -8117,13 +8129,13 @@
         <v>232277</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
@@ -8132,13 +8144,13 @@
         <v>437239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>413</v>
+        <v>568</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>563</v>
+        <v>233</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,10 +8168,10 @@
         <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H29" s="7">
         <v>5005</v>
@@ -8168,28 +8180,28 @@
         <v>3575695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
       </c>
       <c r="N29" s="7">
-        <v>6755960</v>
+        <v>6755961</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>419</v>
+        <v>573</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>570</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,7 +8243,7 @@
         <v>8740</v>
       </c>
       <c r="N30" s="7">
-        <v>7193199</v>
+        <v>7193200</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8245,7 +8257,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P15-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB8F4423-664F-40DD-85C5-97F63F2F9CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D43B09B-B072-4356-A1D3-8C7C1EA1C3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF71213D-2C36-414D-9295-F881CFCF78EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46FC9EAE-4CE7-4390-864C-108CCDAF3D53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="590">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -557,12 +557,60 @@
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
     <t>4,54%</t>
   </si>
   <si>
@@ -587,9 +635,6 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
     <t>91,23%</t>
   </si>
   <si>
@@ -668,519 +713,513 @@
     <t>88,21%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
     <t>91,78%</t>
   </si>
   <si>
@@ -1388,382 +1427,388 @@
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
 </sst>
 </file>
@@ -2175,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E4DFB-2FF7-4D7A-A81C-0D8BBB7F4D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4C2CCB-32DA-425E-8A20-26DD3189CDBF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3587,7 +3632,7 @@
         <v>2977</v>
       </c>
       <c r="D29" s="7">
-        <v>3033488</v>
+        <v>3033487</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>162</v>
@@ -3602,7 +3647,7 @@
         <v>3128</v>
       </c>
       <c r="I29" s="7">
-        <v>3203807</v>
+        <v>3203806</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>153</v>
@@ -3617,7 +3662,7 @@
         <v>6105</v>
       </c>
       <c r="N29" s="7">
-        <v>6237293</v>
+        <v>6237294</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>167</v>
@@ -3638,7 +3683,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3653,7 +3698,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3668,7 +3713,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3706,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD455D51-1D1B-4506-8F91-D0DF5499727C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B35D1A-D99B-46D8-B049-394F06BFB9B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3824,43 +3869,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D4" s="7">
+        <v>37037</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>27623</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="N4" s="7">
+        <v>64660</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,43 +3920,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="D5" s="7">
+        <v>257701</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>231</v>
+      </c>
+      <c r="I5" s="7">
+        <v>259622</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>477</v>
+      </c>
+      <c r="N5" s="7">
+        <v>517323</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,43 +3971,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +4030,13 @@
         <v>32028</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3982,13 +4045,13 @@
         <v>30256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>59</v>
@@ -3997,13 +4060,13 @@
         <v>62284</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,13 +4081,13 @@
         <v>473499</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>452</v>
@@ -4033,13 +4096,13 @@
         <v>493509</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -4048,13 +4111,13 @@
         <v>967008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4185,13 @@
         <v>52853</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -4137,13 +4200,13 @@
         <v>40911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4152,13 +4215,13 @@
         <v>93764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4236,13 @@
         <v>271193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>278</v>
@@ -4188,13 +4251,13 @@
         <v>300109</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>542</v>
@@ -4203,13 +4266,13 @@
         <v>571302</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,49 +4334,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>69745</v>
+        <v>32708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>45060</v>
+        <v>17436</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>114805</v>
+        <v>50145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,49 +4385,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>562</v>
+        <v>316</v>
       </c>
       <c r="D14" s="7">
-        <v>598975</v>
+        <v>341274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
-        <v>585</v>
+        <v>354</v>
       </c>
       <c r="I14" s="7">
-        <v>631136</v>
+        <v>371515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
-        <v>1147</v>
+        <v>670</v>
       </c>
       <c r="N14" s="7">
-        <v>1230111</v>
+        <v>712788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,10 +4436,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4388,10 +4451,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4403,10 +4466,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4432,13 +4495,13 @@
         <v>13172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4447,13 +4510,13 @@
         <v>19798</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4462,13 +4525,13 @@
         <v>32971</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,13 +4546,13 @@
         <v>199446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -4498,13 +4561,13 @@
         <v>199793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>376</v>
@@ -4513,13 +4576,13 @@
         <v>399238</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4653,10 @@
         <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -4602,13 +4665,13 @@
         <v>35415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4617,13 +4680,13 @@
         <v>65766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,10 +4704,10 @@
         <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>235</v>
@@ -4653,13 +4716,13 @@
         <v>244616</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>468</v>
@@ -4668,13 +4731,13 @@
         <v>488246</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4805,13 @@
         <v>65751</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>56</v>
@@ -4757,13 +4820,13 @@
         <v>59675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>119</v>
@@ -4772,13 +4835,13 @@
         <v>125426</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4856,13 @@
         <v>597037</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -4808,13 +4871,13 @@
         <v>634178</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>1135</v>
@@ -4823,13 +4886,13 @@
         <v>1231215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4960,13 @@
         <v>24013</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -4912,13 +4975,13 @@
         <v>26357</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -4927,13 +4990,13 @@
         <v>50370</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +5011,13 @@
         <v>755085</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>734</v>
@@ -4963,13 +5026,13 @@
         <v>797496</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>1429</v>
@@ -4978,13 +5041,13 @@
         <v>1552581</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5115,13 @@
         <v>287913</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>241</v>
@@ -5067,13 +5130,13 @@
         <v>257472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>517</v>
@@ -5082,13 +5145,13 @@
         <v>545385</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5166,13 @@
         <v>3138866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>3057</v>
@@ -5118,13 +5181,13 @@
         <v>3300837</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>5990</v>
@@ -5133,13 +5196,13 @@
         <v>6439703</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783726C1-F5FC-44EA-A436-C95F09EC637E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20830C70-469B-4970-B0B5-1B16753BF88A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5236,7 +5299,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5343,13 +5406,13 @@
         <v>19206</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5358,13 +5421,13 @@
         <v>30188</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -5373,13 +5436,13 @@
         <v>49394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5457,13 @@
         <v>274555</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>250</v>
@@ -5409,13 +5472,13 @@
         <v>258515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>497</v>
@@ -5424,13 +5487,13 @@
         <v>533070</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,7 +5567,7 @@
         <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5513,13 +5576,13 @@
         <v>15878</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -5528,13 +5591,13 @@
         <v>35293</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,7 +5615,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>134</v>
@@ -5564,13 +5627,13 @@
         <v>507206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>927</v>
@@ -5579,13 +5642,13 @@
         <v>990366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5716,13 @@
         <v>23231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5668,13 +5731,13 @@
         <v>13881</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5683,13 +5746,13 @@
         <v>37112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5767,13 @@
         <v>295334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -5719,13 +5782,13 @@
         <v>322428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -5734,13 +5797,13 @@
         <v>617762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5871,13 @@
         <v>38392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5823,13 +5886,13 @@
         <v>36371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5841,10 +5904,10 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,10 +5922,10 @@
         <v>331572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>118</v>
@@ -5874,13 +5937,13 @@
         <v>350912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -5892,10 +5955,10 @@
         <v>60</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +6026,13 @@
         <v>10124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>213</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5978,13 +6041,13 @@
         <v>4533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5993,13 +6056,13 @@
         <v>14657</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6077,13 @@
         <v>201097</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -6029,13 +6092,13 @@
         <v>214054</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>420</v>
@@ -6044,13 +6107,13 @@
         <v>415151</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6181,13 @@
         <v>28224</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -6133,13 +6196,13 @@
         <v>36459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>61</v>
@@ -6148,13 +6211,13 @@
         <v>64683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6232,13 @@
         <v>234899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>231</v>
@@ -6184,13 +6247,13 @@
         <v>236656</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -6199,13 +6262,13 @@
         <v>471555</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6336,13 @@
         <v>26436</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6288,10 +6351,10 @@
         <v>27407</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -6303,13 +6366,13 @@
         <v>53843</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6387,13 @@
         <v>630122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>621</v>
@@ -6339,13 +6402,13 @@
         <v>663887</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>1177</v>
@@ -6354,13 +6417,13 @@
         <v>1294009</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6491,13 @@
         <v>34606</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -6443,13 +6506,13 @@
         <v>26736</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -6458,10 +6521,10 @@
         <v>61342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>139</v>
@@ -6479,13 +6542,13 @@
         <v>743977</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>730</v>
@@ -6494,13 +6557,13 @@
         <v>799431</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1447</v>
@@ -6509,13 +6572,13 @@
         <v>1543408</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6583,13 +6646,13 @@
         <v>199634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="H28" s="7">
         <v>172</v>
@@ -6598,13 +6661,13 @@
         <v>191453</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>365</v>
@@ -6613,13 +6676,13 @@
         <v>391087</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6697,13 @@
         <v>3194716</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>3166</v>
@@ -6649,13 +6712,13 @@
         <v>3353089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>6204</v>
@@ -6664,13 +6727,13 @@
         <v>6547805</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,7 +6813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAED7E2-58BE-484B-9A56-A2EFC16C2DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90A5A44-35F3-497C-BFF1-699269359C97}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6767,7 +6830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6871,46 +6934,46 @@
         <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>23447</v>
+        <v>28092</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>241</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H4" s="7">
         <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>28061</v>
+        <v>28977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>88</v>
       </c>
       <c r="N4" s="7">
-        <v>51508</v>
+        <v>57069</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>59</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,46 +6985,46 @@
         <v>302</v>
       </c>
       <c r="D5" s="7">
-        <v>236851</v>
+        <v>283351</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>456</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>479</v>
       </c>
       <c r="I5" s="7">
-        <v>243342</v>
+        <v>260658</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
       </c>
       <c r="N5" s="7">
-        <v>480192</v>
+        <v>544008</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>67</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,7 +7036,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6988,7 +7051,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7003,7 +7066,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7026,46 +7089,46 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>24633</v>
+        <v>24343</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>476</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="H7" s="7">
         <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>36446</v>
+        <v>33363</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>479</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>61079</v>
+        <v>57705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>467</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,46 +7140,46 @@
         <v>363</v>
       </c>
       <c r="D8" s="7">
-        <v>494664</v>
+        <v>494047</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>669</v>
       </c>
       <c r="I8" s="7">
-        <v>518120</v>
+        <v>481606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>1032</v>
       </c>
       <c r="N8" s="7">
-        <v>1012785</v>
+        <v>975654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,7 +7191,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7143,7 +7206,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7158,7 +7221,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7181,46 +7244,46 @@
         <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>21832</v>
+        <v>21332</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>29002</v>
+        <v>26796</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
       </c>
       <c r="N10" s="7">
-        <v>50834</v>
+        <v>48128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,46 +7295,46 @@
         <v>332</v>
       </c>
       <c r="D11" s="7">
-        <v>300408</v>
+        <v>294718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>484</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>485</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H11" s="7">
         <v>493</v>
       </c>
       <c r="I11" s="7">
-        <v>344282</v>
+        <v>322332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
       </c>
       <c r="N11" s="7">
-        <v>644690</v>
+        <v>617050</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>489</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,7 +7346,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7298,7 +7361,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7313,7 +7376,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7336,46 +7399,46 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>24794</v>
+        <v>23751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>20042</v>
+        <v>18212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>44836</v>
+        <v>41964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>504</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7387,46 +7450,46 @@
         <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>297446</v>
+        <v>288806</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>499</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
       </c>
       <c r="I14" s="7">
-        <v>408514</v>
+        <v>457506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>848</v>
       </c>
       <c r="N14" s="7">
-        <v>705960</v>
+        <v>746310</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,7 +7501,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7453,7 +7516,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7468,7 +7531,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7491,46 +7554,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8046</v>
+        <v>7113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>654</v>
+        <v>540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>8700</v>
+        <v>7653</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>520</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,46 +7605,46 @@
         <v>270</v>
       </c>
       <c r="D17" s="7">
-        <v>188702</v>
+        <v>171629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="H17" s="7">
         <v>491</v>
       </c>
       <c r="I17" s="7">
-        <v>231249</v>
+        <v>208116</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="M17" s="7">
         <v>761</v>
       </c>
       <c r="N17" s="7">
-        <v>419951</v>
+        <v>379745</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>528</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7656,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7608,7 +7671,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7623,7 +7686,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7646,46 +7709,46 @@
         <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>26927</v>
+        <v>26033</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>29028</v>
+        <v>26997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
       </c>
       <c r="N19" s="7">
-        <v>55954</v>
+        <v>53030</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>537</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,46 +7760,46 @@
         <v>331</v>
       </c>
       <c r="D20" s="7">
-        <v>250296</v>
+        <v>243603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>397</v>
       </c>
       <c r="I20" s="7">
-        <v>246594</v>
+        <v>230059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>728</v>
       </c>
       <c r="N20" s="7">
-        <v>496891</v>
+        <v>473662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7811,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7763,7 +7826,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7778,7 +7841,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7801,46 +7864,46 @@
         <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>44392</v>
+        <v>43439</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>538</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>76</v>
       </c>
       <c r="I22" s="7">
-        <v>54587</v>
+        <v>50106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>120</v>
       </c>
       <c r="N22" s="7">
-        <v>98978</v>
+        <v>93546</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,46 +7915,46 @@
         <v>555</v>
       </c>
       <c r="D23" s="7">
-        <v>583362</v>
+        <v>580840</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>547</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>884</v>
       </c>
       <c r="I23" s="7">
-        <v>749616</v>
+        <v>799159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M23" s="7">
         <v>1439</v>
       </c>
       <c r="N23" s="7">
-        <v>1332979</v>
+        <v>1379998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>62</v>
+        <v>561</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7966,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7918,7 +7981,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7933,7 +7996,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7956,46 +8019,46 @@
         <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>30892</v>
+        <v>25955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>555</v>
+        <v>18</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
       </c>
       <c r="I25" s="7">
-        <v>34457</v>
+        <v>28612</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>556</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>567</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>65349</v>
+        <v>54567</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>568</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>557</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,46 +8070,46 @@
         <v>737</v>
       </c>
       <c r="D26" s="7">
-        <v>828536</v>
+        <v>902765</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>560</v>
+        <v>29</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H26" s="7">
         <v>1018</v>
       </c>
       <c r="I26" s="7">
-        <v>833977</v>
+        <v>689119</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>562</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>81</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>1755</v>
       </c>
       <c r="N26" s="7">
-        <v>1662513</v>
+        <v>1591885</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>574</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8121,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8073,7 +8136,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8088,7 +8151,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8111,46 +8174,46 @@
         <v>212</v>
       </c>
       <c r="D28" s="7">
-        <v>204962</v>
+        <v>200059</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
       <c r="H28" s="7">
         <v>359</v>
       </c>
       <c r="I28" s="7">
-        <v>232277</v>
+        <v>213603</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>578</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>571</v>
       </c>
       <c r="N28" s="7">
-        <v>437239</v>
+        <v>413662</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>233</v>
+        <v>582</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8162,46 +8225,46 @@
         <v>3164</v>
       </c>
       <c r="D29" s="7">
-        <v>3180266</v>
+        <v>3259758</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="H29" s="7">
         <v>5005</v>
       </c>
       <c r="I29" s="7">
-        <v>3575695</v>
+        <v>3448554</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>585</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
       </c>
       <c r="N29" s="7">
-        <v>6755961</v>
+        <v>6708312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>574</v>
+        <v>487</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>242</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,7 +8276,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8228,7 +8291,7 @@
         <v>5364</v>
       </c>
       <c r="I30" s="7">
-        <v>3807972</v>
+        <v>3662157</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8243,7 +8306,7 @@
         <v>8740</v>
       </c>
       <c r="N30" s="7">
-        <v>7193200</v>
+        <v>7121974</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
